--- a/biology/Botanique/Rayon_d'Or/Rayon_d'Or.xlsx
+++ b/biology/Botanique/Rayon_d'Or/Rayon_d'Or.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rayon_d%27Or</t>
+          <t>Rayon_d'Or</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Rayon d'Or' est un cultivar de rosier introduit en 1910 par le rosiériste lyonnais Joseph Pernet-Ducher. Il était classé dans les Pernetiana, il fait partie désormais des hybrides de thé.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rayon_d%27Or</t>
+          <t>Rayon_d'Or</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est à partir de 1895 que Joseph Pernet-Ducher s'attache à créer un rosier jaune, couleur rare à l'époque pour les roses, l'une des premières étant 'Maréchal Niel' (Pradel 1864). Pernet-Ducher va donc croiser différents semis avec Rosa foetida ' Persiana'. Il obtient d'abord en 1898 'Soleil d'Or' (jaune nuancé de rose/rouge), mais il lui faut attendre 1910[1] pour obtenir cette rose d'un jaune pur, 'Rayon d'Or', issue de 'Soleil d'Or'[2].
-Son buisson vigoureux donne de grandes fleurs doubles (17-25 pétales) en forme de coupe d'un jaune profond qui pâlit au fur et à mesure de la floraison ; celle-ci est remontante pendant tout l'été et au début de l'automne[3].
-Sa zone de rusticité est de 6b à 9b[3] ; il supporte donc les hivers froids. Il a besoin d'une exposition ensoleillée.
-Il est issu de 'Madame Mélanie Soupert' x 'Soleil d'Or'. Il a donné naissance à 'Constance' (Pernet-Ducher 1915) ; 'Feu Joseph Looymans' (Looymans 1921, par croisement avec 'Sunburst') ; 'Mrs Pierre S. duPont' (Mallerin 1929)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est à partir de 1895 que Joseph Pernet-Ducher s'attache à créer un rosier jaune, couleur rare à l'époque pour les roses, l'une des premières étant 'Maréchal Niel' (Pradel 1864). Pernet-Ducher va donc croiser différents semis avec Rosa foetida ' Persiana'. Il obtient d'abord en 1898 'Soleil d'Or' (jaune nuancé de rose/rouge), mais il lui faut attendre 1910 pour obtenir cette rose d'un jaune pur, 'Rayon d'Or', issue de 'Soleil d'Or'.
+Son buisson vigoureux donne de grandes fleurs doubles (17-25 pétales) en forme de coupe d'un jaune profond qui pâlit au fur et à mesure de la floraison ; celle-ci est remontante pendant tout l'été et au début de l'automne.
+Sa zone de rusticité est de 6b à 9b ; il supporte donc les hivers froids. Il a besoin d'une exposition ensoleillée.
+Il est issu de 'Madame Mélanie Soupert' x 'Soleil d'Or'. Il a donné naissance à 'Constance' (Pernet-Ducher 1915) ; 'Feu Joseph Looymans' (Looymans 1921, par croisement avec 'Sunburst') ; 'Mrs Pierre S. duPont' (Mallerin 1929).
 </t>
         </is>
       </c>
